--- a/测试选择 - 副本.xlsx
+++ b/测试选择 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12720"/>
+    <workbookView windowWidth="24180" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>1.通常，法定存款准备金率的制定者是（）。</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>  </t>
     </r>
     <r>
@@ -101,16 +107,96 @@
   <si>
     <t>押题说明:</t>
   </si>
+  <si>
+    <t>2.xxxxx者是（）。</t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商业银行   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银行业协会   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中央银行   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货币政策委员会 </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -128,15 +214,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,37 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,26 +311,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,24 +341,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,12 +372,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,25 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,109 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,8 +614,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -538,8 +626,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,26 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,6 +676,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +714,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,52 +931,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1552575"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -943,7 +988,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37385625"/>
+          <a:off x="0" y="38252400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -984,7 +1029,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37728525"/>
+          <a:off x="0" y="38595300"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1259,13 +1304,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="80.25" customWidth="1"/>
   </cols>
@@ -1290,6 +1335,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" ht="20.25" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="60.75" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
